--- a/data/output/FV2410_FV2404/MSCONS/13023.xlsx
+++ b/data/output/FV2410_FV2404/MSCONS/13023.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="239">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="239">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nutzdaten-Kopfsegment</t>
@@ -822,6 +822,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U99" totalsRowShown="0">
+  <autoFilter ref="A1:U99"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1111,7 +1141,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5935,5 +5968,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/MSCONS/13023.xlsx
+++ b/data/output/FV2410_FV2404/MSCONS/13023.xlsx
@@ -1541,7 +1541,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N15" s="2"/>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N22" s="2"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N26" s="2"/>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3475,7 +3475,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N57" s="2"/>
@@ -4459,7 +4459,7 @@
         <v>232</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -4603,7 +4603,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -4809,7 +4809,7 @@
         <v>234</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5029,7 +5029,7 @@
         <v>234</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5393,7 +5393,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -5605,7 +5605,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6083,7 +6083,7 @@
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N94" s="2"/>
@@ -6443,7 +6443,7 @@
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N97" s="2"/>
